--- a/trend_results/Rivers/PorewaatusHuntervilleSTPSiteA_abd3610be5.xlsx
+++ b/trend_results/Rivers/PorewaatusHuntervilleSTPSiteA_abd3610be5.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.697089154723832</v>
+        <v>0.302910845276168</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.911456426902938</v>
+        <v>0.088543573097062</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.168075784302967</v>
+        <v>0.831924215697033</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.161800450247835</v>
+        <v>0.838199549752165</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q24" t="n">

--- a/trend_results/Rivers/PorewaatusHuntervilleSTPSiteA_abd3610be5.xlsx
+++ b/trend_results/Rivers/PorewaatusHuntervilleSTPSiteA_abd3610be5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.848102235357948</v>
+        <v>0.982603890572901</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -585,19 +585,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K2" t="n">
-        <v>-5.27819878601129</v>
+        <v>-9.8596244943581</v>
       </c>
       <c r="L2" t="n">
-        <v>-12.2768070548127</v>
+        <v>-19.0481357775934</v>
       </c>
       <c r="M2" t="n">
-        <v>3.36431638062732</v>
+        <v>-2.39159307441223</v>
       </c>
       <c r="N2" t="n">
-        <v>-8.79699797668548</v>
+        <v>-15.1686530682432</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,13 +664,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.892232609195762</v>
+        <v>0.032155130973149</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.92</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -679,16 +679,16 @@
         <v>0.32</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0374511131725417</v>
+        <v>-0.0399665653495441</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0075105494379043</v>
+        <v>-0.08321894858669331</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09820264616983169</v>
+        <v>-0.0048085394865121</v>
       </c>
       <c r="N3" t="n">
-        <v>11.7034728664193</v>
+        <v>-12.4895516717325</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -747,7 +747,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.302910845276168</v>
+        <v>0.0019180320680329</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -767,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.36</v>
+        <v>11.23</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.136373823963499</v>
+        <v>-0.311836432797971</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.379595937308156</v>
+        <v>-0.481648351648352</v>
       </c>
       <c r="M4" t="n">
-        <v>0.160864035137949</v>
+        <v>-0.148940603856571</v>
       </c>
       <c r="N4" t="n">
-        <v>-1.20047380249559</v>
+        <v>-2.77681596436306</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -838,7 +838,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.102558840516703</v>
+        <v>0.742907522383728</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.431034482758621</v>
+        <v>0.413793103448276</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0008245982625714</v>
+        <v>-0.0003983097055616</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.0003324200523551</v>
+        <v>-0.0016257307417419</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0014913039032954</v>
+        <v>0.0005435267857142</v>
       </c>
       <c r="N5" t="n">
-        <v>4.58110145873034</v>
+        <v>-2.34299826800949</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.885122597066175</v>
+        <v>0.757325320132512</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0344827586206897</v>
+        <v>0.0172413793103448</v>
       </c>
       <c r="H6" t="n">
-        <v>0.862068965517241</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>520</v>
+        <v>475</v>
       </c>
       <c r="K6" t="n">
-        <v>-63.2467532467532</v>
+        <v>-31.2361516034985</v>
       </c>
       <c r="L6" t="n">
-        <v>-148.952494032554</v>
+        <v>-102.612761328077</v>
       </c>
       <c r="M6" t="n">
-        <v>19.5509608426516</v>
+        <v>42.481952482005</v>
       </c>
       <c r="N6" t="n">
-        <v>-12.1628371628372</v>
+        <v>-6.57603191652601</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1024,35 +1024,35 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.566141848085448</v>
+        <v>0.760264883934321</v>
       </c>
       <c r="G7" t="n">
-        <v>0.351851851851852</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="H7" t="n">
-        <v>0.777777777777778</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="I7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0137588691724861</v>
+        <v>0.0151150811829058</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>-0.0004707454033294</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0015290376420722</v>
+        <v>-0.0025113031517833</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0005824657059404</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>-3.11440869971536</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1115,14 +1115,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.293459784467028</v>
+        <v>0.0406122068825396</v>
       </c>
       <c r="G8" t="n">
-        <v>0.206896551724138</v>
+        <v>0.155172413793103</v>
       </c>
       <c r="H8" t="n">
         <v>0.275862068965517</v>
@@ -1134,16 +1134,16 @@
         <v>0.005</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.0004157083987441</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.000219306151224</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.00050493128481</v>
+        <v>0.0009845013477087999</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>8.31416797488226</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.201262172599977</v>
+        <v>0.0037269006366701</v>
       </c>
       <c r="G9" t="n">
-        <v>0.155172413793103</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="H9" t="n">
-        <v>0.793103448275862</v>
+        <v>0.844827586206897</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.187</v>
+        <v>0.1975</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0024076412122225</v>
+        <v>0.0222806538979888</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.003183355963125</v>
+        <v>0.0078586962303328</v>
       </c>
       <c r="M9" t="n">
-        <v>0.009031175163455999</v>
+        <v>0.0401538456524911</v>
       </c>
       <c r="N9" t="n">
-        <v>1.28750866963775</v>
+        <v>11.2813437458171</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.088543573097062</v>
+        <v>0.049200143387524</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1313,19 +1313,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>7.87</v>
+        <v>7.86</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0467829248717848</v>
+        <v>-0.0652232142857139</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.11616283863836</v>
+        <v>-0.144427818113266</v>
       </c>
       <c r="M10" t="n">
-        <v>0.007849688026145</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.594446313491548</v>
+        <v>-0.829811886586691</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1384,35 +1384,35 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.252346342651449</v>
+        <v>0.0031891092702292</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0862068965517241</v>
+        <v>0.0517241379310345</v>
       </c>
       <c r="H11" t="n">
-        <v>0.879310344827586</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0.199</v>
+        <v>0.2115</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0047543661695447</v>
+        <v>0.0266919638775572</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.008672396116516899</v>
+        <v>0.0133549252988672</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0179953772337874</v>
+        <v>0.0433231071525988</v>
       </c>
       <c r="N11" t="n">
-        <v>2.38912872841444</v>
+        <v>12.620313890098</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1475,35 +1475,35 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.972526498394879</v>
+        <v>0.0157925230758146</v>
       </c>
       <c r="G12" t="n">
-        <v>0.137931034482759</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.362068965517241</v>
+        <v>0.724137931034483</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.7456618760506249</v>
+        <v>0.0300310051790315</v>
       </c>
       <c r="L12" t="n">
-        <v>-1.00343406593407</v>
+        <v>0.0063001108617245</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.0628331979898894</v>
       </c>
       <c r="N12" t="n">
-        <v>-18.6415469012656</v>
+        <v>3.70753150358414</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1555,14 +1555,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.301924123033672</v>
+        <v>0.0334504970140723</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.689655172413793</v>
+        <v>0.775862068965517</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.795</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0070683076115061</v>
+        <v>0.0045244932432432</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0238609534844388</v>
+        <v>0.0003914060771498</v>
       </c>
       <c r="M13" t="n">
-        <v>0.031057732351871</v>
+        <v>0.0088117709061462</v>
       </c>
       <c r="N13" t="n">
-        <v>0.8890952970447979</v>
+        <v>6.60509962517262</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1646,46 +1646,46 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>5</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.51070632390361</v>
+        <v>0.0232697904235028</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.827586206896552</v>
+        <v>0.982758620689655</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.068</v>
+        <v>6.425</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1.22677803685168</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.004373607961674</v>
+        <v>0.202636255917275</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0040913210288415</v>
+        <v>2.57037068510443</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>19.0938215852402</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1737,14 +1737,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.865596628226167</v>
+        <v>0.399044521772492</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.982758620689655</v>
+        <v>0.644859813084112</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>5.73</v>
+        <v>50</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.516768543956044</v>
+        <v>0.29987684729064</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.82799084973873</v>
+        <v>-2.05885227665244</v>
       </c>
       <c r="M15" t="n">
-        <v>0.115823011151475</v>
+        <v>2.91591257954909</v>
       </c>
       <c r="N15" t="n">
-        <v>-9.018648236580169</v>
+        <v>0.599753694581281</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1828,46 +1828,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.015158673053604</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0289855072463768</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.768115942028985</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>0.0968587794194484</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
-        <v>48.5</v>
+        <v>0.32</v>
       </c>
       <c r="K16" t="n">
-        <v>1.74960082116788</v>
+        <v>-0.0326798322624029</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.16632628726449</v>
+        <v>-0.0652232142857143</v>
       </c>
       <c r="M16" t="n">
-        <v>3.34854666628364</v>
+        <v>-0.008030494456824</v>
       </c>
       <c r="N16" t="n">
-        <v>3.60742437354203</v>
+        <v>-10.2124475820009</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1919,14 +1919,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.016983618141983</v>
+        <v>0.468047695480366</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0303030303030303</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.772727272727273</v>
+        <v>0.905982905982906</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.355</v>
+        <v>10.84</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0501717032967033</v>
+        <v>-0.005005138746146</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.08890006414153009</v>
+        <v>-0.102541801998556</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.0087839969177675</v>
+        <v>0.0843824229062792</v>
       </c>
       <c r="N17" t="n">
-        <v>-14.1328741680854</v>
+        <v>-0.046172866661864</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2025,31 +2025,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.831924215697033</v>
+        <v>0.0760954808141413</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.0338983050847458</v>
       </c>
       <c r="H18" t="n">
-        <v>0.931623931623932</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>10.82</v>
+        <v>0.016</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0725745118191161</v>
+        <v>0.0004705058619192</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0501717032967037</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.142582356731411</v>
+        <v>0.0007515957170832</v>
       </c>
       <c r="N18" t="n">
-        <v>0.67074410184026</v>
+        <v>2.94066163699522</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,14 +2101,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2116,31 +2116,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.0159167254559414</v>
+        <v>0.449097968351731</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0338983050847458</v>
+        <v>0.0423728813559322</v>
       </c>
       <c r="H19" t="n">
-        <v>0.296610169491525</v>
+        <v>0.76271186440678</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>0.017</v>
+        <v>520</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0005359873221041</v>
+        <v>0.937339606501283</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0001666861001162</v>
+        <v>-21.9091458339264</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0009986329460013</v>
+        <v>26.3559263489824</v>
       </c>
       <c r="N19" t="n">
-        <v>3.1528666006125</v>
+        <v>0.180257616634862</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2207,31 +2207,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.457392656235655</v>
+        <v>0.0001118413537634</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0423728813559322</v>
+        <v>0.486486486486487</v>
       </c>
       <c r="H20" t="n">
-        <v>0.771186440677966</v>
+        <v>0.567567567567568</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J20" t="n">
-        <v>520</v>
+        <v>0.0106526257283888</v>
       </c>
       <c r="K20" t="n">
-        <v>0.590700808625337</v>
+        <v>0.0005931497311803</v>
       </c>
       <c r="L20" t="n">
-        <v>-23.7599246417138</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>26.3454687794572</v>
+        <v>0.0011303462890878</v>
       </c>
       <c r="N20" t="n">
-        <v>0.113596309351026</v>
+        <v>5.56810824207986</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2283,14 +2283,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2298,31 +2298,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.0001569556936913</v>
+        <v>0.0206813372762932</v>
       </c>
       <c r="G21" t="n">
-        <v>0.540540540540541</v>
+        <v>0.186440677966102</v>
       </c>
       <c r="H21" t="n">
-        <v>0.513513513513513</v>
+        <v>0.161016949152542</v>
       </c>
       <c r="I21" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0060760917465332</v>
+        <v>0.005</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0001349902377099</v>
+        <v>0.0001545643922868</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0009056652245184</v>
+        <v>0.0003330547112462</v>
       </c>
       <c r="N21" t="n">
-        <v>2.2216622681335</v>
+        <v>3.09128784573772</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2389,31 +2389,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.045235238237179</v>
+        <v>2.89063087282143e-05</v>
       </c>
       <c r="G22" t="n">
-        <v>0.186440677966102</v>
+        <v>0.194915254237288</v>
       </c>
       <c r="H22" t="n">
-        <v>0.169491525423729</v>
+        <v>0.76271186440678</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0.005</v>
+        <v>0.2097</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0001667047010497</v>
+        <v>0.0045004556970597</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>0.0015828175127017</v>
       </c>
       <c r="M22" t="n">
-        <v>0.000332347588717</v>
+        <v>0.0106219778391276</v>
       </c>
       <c r="N22" t="n">
-        <v>3.33409402099498</v>
+        <v>2.1461400558225</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2465,46 +2465,46 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0001298148272629</v>
+        <v>0.642426681979569</v>
       </c>
       <c r="G23" t="n">
-        <v>0.245762711864407</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.720338983050847</v>
+        <v>0.692982456140351</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1795</v>
+        <v>7.795</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0016279072745901</v>
+        <v>0.003824607329843</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0001406198050256</v>
+        <v>-0.0138695761479671</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0043746776974885</v>
+        <v>0.0216538445467686</v>
       </c>
       <c r="N23" t="n">
-        <v>0.906912130690898</v>
+        <v>0.0490648791512895</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2542,11 +2542,7 @@
           <t>Rang_4c</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2556,46 +2552,46 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.838199549752165</v>
+        <v>2.65639875621322e-05</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.110169491525424</v>
       </c>
       <c r="H24" t="n">
-        <v>0.684210526315789</v>
+        <v>0.813559322033898</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>7.785</v>
+        <v>0.21855</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0103528911564625</v>
+        <v>0.0099099916530837</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0073232377188537</v>
+        <v>0.0046558615941238</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0279528061224491</v>
+        <v>0.0140411415019732</v>
       </c>
       <c r="N24" t="n">
-        <v>0.132985114405428</v>
+        <v>4.53442766098548</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2604,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2633,7 +2629,11 @@
           <t>Rang_4c</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2654,35 +2654,35 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.0001142406866359</v>
+        <v>0.0425992689834088</v>
       </c>
       <c r="G25" t="n">
-        <v>0.110169491525424</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.754237288135593</v>
+        <v>0.635593220338983</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.195</v>
+        <v>0.82</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0055802205193494</v>
+        <v>0.0100343406593407</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0029836272155422</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.009778134579254701</v>
+        <v>0.0196731598909163</v>
       </c>
       <c r="N25" t="n">
-        <v>2.86165154838435</v>
+        <v>1.2237000804074</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.933619056901542</v>
+        <v>0.0479736646174119</v>
       </c>
       <c r="G26" t="n">
-        <v>0.101694915254237</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.296610169491525</v>
+        <v>0.627118644067797</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>0.07149999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.133652206300355</v>
+        <v>0.0017099988826962</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.428864970645793</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>0.0033447802197802</v>
       </c>
       <c r="N26" t="n">
-        <v>-3.34130515750887</v>
+        <v>2.39160682894581</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.0301318577955374</v>
+        <v>0.06274113958373199</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.686440677966102</v>
+        <v>0.940677966101695</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.77</v>
+        <v>7.185</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0100183113611628</v>
+        <v>0.214621112749955</v>
       </c>
       <c r="L27" t="n">
-        <v>0.00093184780565</v>
+        <v>-0.0183848822096823</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0178015889526427</v>
+        <v>0.470935764238371</v>
       </c>
       <c r="N27" t="n">
-        <v>1.30107939755361</v>
+        <v>2.98707185455748</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2903,188 +2903,6 @@
         </is>
       </c>
       <c r="W27" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Porewa at u/s Hunterville STP Site A</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Total Phosphorus</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>10</v>
-      </c>
-      <c r="D28" t="b">
-        <v>0</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>0.0655367403178669</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.610169491525424</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.0012788865546218</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.0027223968042297</v>
-      </c>
-      <c r="N28" t="n">
-        <v>1.85345877481427</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>Very unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q28" t="n">
-        <v>1819568.572</v>
-      </c>
-      <c r="R28" t="n">
-        <v>5575134.211</v>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>Rangitikei District</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>Rangitīkei-Turakina</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>Coastal Rangitikei</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>Rang_4c</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Porewa at u/s Hunterville STP Site A</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>10</v>
-      </c>
-      <c r="D29" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>0.457923521470797</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.932203389830508</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.009986558084772199</v>
-      </c>
-      <c r="L29" t="n">
-        <v>-0.170221881749501</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.189927818215322</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0.168691859540071</v>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>As likely as not improving</t>
-        </is>
-      </c>
-      <c r="Q29" t="n">
-        <v>1819568.572</v>
-      </c>
-      <c r="R29" t="n">
-        <v>5575134.211</v>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>Rangitikei District</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>Rangitīkei-Turakina</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>Coastal Rangitikei</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>Rang_4c</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/PorewaatusHuntervilleSTPSiteA_abd3610be5.xlsx
+++ b/trend_results/Rivers/PorewaatusHuntervilleSTPSiteA_abd3610be5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="61">
   <si>
     <t>site name</t>
   </si>
@@ -133,34 +133,40 @@
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on tied non-censored values</t>
+  </si>
+  <si>
     <t>RepSite</t>
   </si>
   <si>
-    <t>Extremely likely improving</t>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
   </si>
   <si>
     <t>Extremely unlikely improving</t>
   </si>
   <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely increasing</t>
-  </si>
-  <si>
     <t>As likely as not improving</t>
   </si>
   <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
     <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>Very likely increasing</t>
   </si>
   <si>
     <t>Rangitikei District</t>
@@ -642,37 +648,37 @@
         <v>37</v>
       </c>
       <c r="F2">
-        <v>0.982603890572901</v>
+        <v>0.7642604686598991</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.811320754716981</v>
+        <v>0.826086956521739</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>65</v>
+        <v>57.5</v>
       </c>
       <c r="K2">
-        <v>-9.8596244943581</v>
+        <v>-3.45553453169347</v>
       </c>
       <c r="L2">
-        <v>-19.0481357775934</v>
+        <v>-14.9067517729011</v>
       </c>
       <c r="M2">
-        <v>-2.39159307441223</v>
+        <v>5.16998501612608</v>
       </c>
       <c r="N2">
-        <v>-15.1686530682432</v>
+        <v>-6.00962527251039</v>
       </c>
       <c r="O2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q2">
         <v>1819568.572</v>
@@ -681,19 +687,19 @@
         <v>5575134.211</v>
       </c>
       <c r="S2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -713,37 +719,37 @@
         <v>37</v>
       </c>
       <c r="F3">
-        <v>0.032155130973149</v>
+        <v>0.0016997172957909</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.91304347826087</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
       <c r="K3">
-        <v>-0.0399665653495441</v>
+        <v>-0.07437372852622059</v>
       </c>
       <c r="L3">
-        <v>-0.08321894858669331</v>
+        <v>-0.106404739035444</v>
       </c>
       <c r="M3">
-        <v>-0.0048085394865121</v>
+        <v>-0.0312790349169485</v>
       </c>
       <c r="N3">
-        <v>-12.4895516717325</v>
+        <v>-32.3364037070524</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q3">
         <v>1819568.572</v>
@@ -752,19 +758,19 @@
         <v>5575134.211</v>
       </c>
       <c r="S3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -778,43 +784,43 @@
         <v>5</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>37</v>
       </c>
       <c r="F4">
-        <v>0.0019180320680329</v>
+        <v>0.168937424369248</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.948275862068966</v>
+        <v>0.9655172413793101</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.23</v>
+        <v>10.985</v>
       </c>
       <c r="K4">
-        <v>-0.311836432797971</v>
+        <v>-0.14717032967033</v>
       </c>
       <c r="L4">
-        <v>-0.481648351648352</v>
+        <v>-0.296273842084573</v>
       </c>
       <c r="M4">
-        <v>-0.148940603856571</v>
+        <v>0.0954705584010111</v>
       </c>
       <c r="N4">
-        <v>-2.77681596436306</v>
+        <v>-1.33973900473673</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q4">
         <v>1819568.572</v>
@@ -823,19 +829,19 @@
         <v>5575134.211</v>
       </c>
       <c r="S4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -855,37 +861,37 @@
         <v>37</v>
       </c>
       <c r="F5">
-        <v>0.742907522383728</v>
+        <v>0.923973561714668</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.413793103448276</v>
+        <v>0.396551724137931</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
       <c r="K5">
-        <v>-0.0003983097055616</v>
+        <v>-0.0008553864168618</v>
       </c>
       <c r="L5">
-        <v>-0.0016257307417419</v>
+        <v>-0.0024458705357142</v>
       </c>
       <c r="M5">
-        <v>0.0005435267857142</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>-2.34299826800949</v>
+        <v>-5.34616510538641</v>
       </c>
       <c r="O5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q5">
         <v>1819568.572</v>
@@ -894,19 +900,19 @@
         <v>5575134.211</v>
       </c>
       <c r="S5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -926,37 +932,37 @@
         <v>37</v>
       </c>
       <c r="F6">
-        <v>0.757325320132512</v>
+        <v>0.208465362453592</v>
       </c>
       <c r="G6">
         <v>0.0172413793103448</v>
       </c>
       <c r="H6">
-        <v>0.896551724137931</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>475</v>
+        <v>526.6</v>
       </c>
       <c r="K6">
-        <v>-31.2361516034985</v>
+        <v>34.9255563531946</v>
       </c>
       <c r="L6">
-        <v>-102.612761328077</v>
+        <v>-35.9836813310355</v>
       </c>
       <c r="M6">
-        <v>42.481952482005</v>
+        <v>118.106235398232</v>
       </c>
       <c r="N6">
-        <v>-6.57603191652601</v>
+        <v>6.63227427899631</v>
       </c>
       <c r="O6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q6">
         <v>1819568.572</v>
@@ -965,19 +971,19 @@
         <v>5575134.211</v>
       </c>
       <c r="S6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -997,37 +1003,37 @@
         <v>37</v>
       </c>
       <c r="F7">
-        <v>0.760264883934321</v>
+        <v>0.0335392874914504</v>
       </c>
       <c r="G7">
-        <v>0.285714285714286</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.785714285714286</v>
+        <v>0.982456140350877</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0151150811829058</v>
+        <v>0.0153772493251016</v>
       </c>
       <c r="K7">
-        <v>-0.0004707454033294</v>
+        <v>0.0016076347236763</v>
       </c>
       <c r="L7">
-        <v>-0.0025113031517833</v>
+        <v>0.0001489744094893</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.0030240424252852</v>
       </c>
       <c r="N7">
-        <v>-3.11440869971536</v>
+        <v>10.4546313172672</v>
       </c>
       <c r="O7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q7">
         <v>1819568.572</v>
@@ -1036,19 +1042,19 @@
         <v>5575134.211</v>
       </c>
       <c r="S7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1065,40 +1071,40 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F8">
-        <v>0.0406122068825396</v>
+        <v>0.647944619096988</v>
       </c>
       <c r="G8">
-        <v>0.155172413793103</v>
+        <v>0.172413793103448</v>
       </c>
       <c r="H8">
-        <v>0.275862068965517</v>
+        <v>0.258620689655172</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K8">
-        <v>0.0004157083987441</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>-0.0009308927386676</v>
       </c>
       <c r="M8">
-        <v>0.0009845013477087999</v>
+        <v>0.0003181045245194</v>
       </c>
       <c r="N8">
-        <v>8.31416797488226</v>
+        <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="Q8">
         <v>1819568.572</v>
@@ -1107,19 +1113,19 @@
         <v>5575134.211</v>
       </c>
       <c r="S8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1136,40 +1142,40 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9">
-        <v>0.0037269006366701</v>
+        <v>0.0696446828434242</v>
       </c>
       <c r="G9">
-        <v>0.103448275862069</v>
+        <v>0.0862068965517241</v>
       </c>
       <c r="H9">
-        <v>0.844827586206897</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.1975</v>
+        <v>0.2055</v>
       </c>
       <c r="K9">
-        <v>0.0222806538979888</v>
+        <v>0.0180618131868132</v>
       </c>
       <c r="L9">
-        <v>0.0078586962303328</v>
+        <v>-0.0018662727219244</v>
       </c>
       <c r="M9">
-        <v>0.0401538456524911</v>
+        <v>0.0347156626828152</v>
       </c>
       <c r="N9">
-        <v>11.2813437458171</v>
+        <v>8.7892034972327</v>
       </c>
       <c r="O9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q9">
         <v>1819568.572</v>
@@ -1178,19 +1184,19 @@
         <v>5575134.211</v>
       </c>
       <c r="S9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1210,37 +1216,37 @@
         <v>37</v>
       </c>
       <c r="F10">
-        <v>0.049200143387524</v>
+        <v>0.846102246325148</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.789473684210526</v>
+        <v>0.844827586206897</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.86</v>
+        <v>7.855</v>
       </c>
       <c r="K10">
-        <v>-0.0652232142857139</v>
+        <v>0.0397010869565215</v>
       </c>
       <c r="L10">
-        <v>-0.144427818113266</v>
+        <v>-0.0209097714004071</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.101267748469999</v>
       </c>
       <c r="N10">
-        <v>-0.829811886586691</v>
+        <v>0.505424404284169</v>
       </c>
       <c r="O10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q10">
         <v>1819568.572</v>
@@ -1249,16 +1255,16 @@
         <v>5575134.211</v>
       </c>
       <c r="S10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1275,40 +1281,40 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11">
-        <v>0.0031891092702292</v>
+        <v>0.0449824875182887</v>
       </c>
       <c r="G11">
-        <v>0.0517241379310345</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.931034482758621</v>
+        <v>0.982758620689655</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2115</v>
+        <v>0.215</v>
       </c>
       <c r="K11">
-        <v>0.0266919638775572</v>
+        <v>0.0192460906018458</v>
       </c>
       <c r="L11">
-        <v>0.0133549252988672</v>
+        <v>0.0003061225574494</v>
       </c>
       <c r="M11">
-        <v>0.0433231071525988</v>
+        <v>0.0400115187226034</v>
       </c>
       <c r="N11">
-        <v>12.620313890098</v>
+        <v>8.95167004737015</v>
       </c>
       <c r="O11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q11">
         <v>1819568.572</v>
@@ -1317,19 +1323,19 @@
         <v>5575134.211</v>
       </c>
       <c r="S11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1349,13 +1355,13 @@
         <v>37</v>
       </c>
       <c r="F12">
-        <v>0.0157925230758146</v>
+        <v>0.228651807422663</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.724137931034483</v>
+        <v>0.741379310344828</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1364,22 +1370,22 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="K12">
-        <v>0.0300310051790315</v>
+        <v>0.008732265502354701</v>
       </c>
       <c r="L12">
-        <v>0.0063001108617245</v>
+        <v>-0.013799056938818</v>
       </c>
       <c r="M12">
-        <v>0.0628331979898894</v>
+        <v>0.0403897105213956</v>
       </c>
       <c r="N12">
-        <v>3.70753150358414</v>
+        <v>1.07805746942651</v>
       </c>
       <c r="O12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q12">
         <v>1819568.572</v>
@@ -1388,19 +1394,19 @@
         <v>5575134.211</v>
       </c>
       <c r="S12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1420,37 +1426,37 @@
         <v>37</v>
       </c>
       <c r="F13">
-        <v>0.0334504970140723</v>
+        <v>0.175462943656867</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.775862068965517</v>
+        <v>0.810344827586207</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06850000000000001</v>
+        <v>0.0735</v>
       </c>
       <c r="K13">
-        <v>0.0045244932432432</v>
+        <v>0.0021676557863501</v>
       </c>
       <c r="L13">
-        <v>0.0003914060771498</v>
+        <v>-0.0016481107911081</v>
       </c>
       <c r="M13">
-        <v>0.0088117709061462</v>
+        <v>0.006891812444528</v>
       </c>
       <c r="N13">
-        <v>6.60509962517262</v>
+        <v>2.94919154605463</v>
       </c>
       <c r="O13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q13">
         <v>1819568.572</v>
@@ -1459,19 +1465,19 @@
         <v>5575134.211</v>
       </c>
       <c r="S13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1485,19 +1491,19 @@
         <v>5</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="s">
         <v>37</v>
       </c>
       <c r="F14">
-        <v>0.0232697904235028</v>
+        <v>0.0105092777779889</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.982758620689655</v>
+        <v>0.9655172413793101</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1506,22 +1512,22 @@
         <v>6.425</v>
       </c>
       <c r="K14">
-        <v>1.22677803685168</v>
+        <v>1.15194230769231</v>
       </c>
       <c r="L14">
-        <v>0.202636255917275</v>
+        <v>0.325621286861228</v>
       </c>
       <c r="M14">
-        <v>2.57037068510443</v>
+        <v>2.14286061455309</v>
       </c>
       <c r="N14">
-        <v>19.0938215852402</v>
+        <v>17.9290631547441</v>
       </c>
       <c r="O14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P14" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="Q14">
         <v>1819568.572</v>
@@ -1530,19 +1536,19 @@
         <v>5575134.211</v>
       </c>
       <c r="S14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1562,13 +1568,13 @@
         <v>37</v>
       </c>
       <c r="F15">
-        <v>0.399044521772492</v>
+        <v>0.322867266555115</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.644859813084112</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1577,22 +1583,22 @@
         <v>50</v>
       </c>
       <c r="K15">
-        <v>0.29987684729064</v>
+        <v>0.778784648187633</v>
       </c>
       <c r="L15">
-        <v>-2.05885227665244</v>
+        <v>-1.97691936809471</v>
       </c>
       <c r="M15">
-        <v>2.91591257954909</v>
+        <v>3.68913675634848</v>
       </c>
       <c r="N15">
-        <v>0.599753694581281</v>
+        <v>1.55756929637527</v>
       </c>
       <c r="O15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q15">
         <v>1819568.572</v>
@@ -1601,19 +1607,19 @@
         <v>5575134.211</v>
       </c>
       <c r="S15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1633,37 +1639,37 @@
         <v>37</v>
       </c>
       <c r="F16">
-        <v>0.015158673053604</v>
+        <v>0.372730577164579</v>
       </c>
       <c r="G16">
-        <v>0.0289855072463768</v>
+        <v>0.03125</v>
       </c>
       <c r="H16">
-        <v>0.768115942028985</v>
+        <v>0.75</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.32</v>
+        <v>0.245</v>
       </c>
       <c r="K16">
-        <v>-0.0326798322624029</v>
+        <v>-0.0032998576910464</v>
       </c>
       <c r="L16">
-        <v>-0.0652232142857143</v>
+        <v>-0.0199559490972532</v>
       </c>
       <c r="M16">
-        <v>-0.008030494456824</v>
+        <v>0.0116570707684689</v>
       </c>
       <c r="N16">
-        <v>-10.2124475820009</v>
+        <v>-1.34688069022302</v>
       </c>
       <c r="O16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P16" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="Q16">
         <v>1819568.572</v>
@@ -1672,19 +1678,19 @@
         <v>5575134.211</v>
       </c>
       <c r="S16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1704,37 +1710,37 @@
         <v>37</v>
       </c>
       <c r="F17">
-        <v>0.468047695480366</v>
+        <v>0.869259660031561</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.905982905982906</v>
+        <v>0.9145299145299149</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.84</v>
+        <v>10.8</v>
       </c>
       <c r="K17">
-        <v>-0.005005138746146</v>
+        <v>0.0602060439560445</v>
       </c>
       <c r="L17">
-        <v>-0.102541801998556</v>
+        <v>-0.0342385854181028</v>
       </c>
       <c r="M17">
-        <v>0.0843824229062792</v>
+        <v>0.13514175291448</v>
       </c>
       <c r="N17">
-        <v>-0.046172866661864</v>
+        <v>0.557463369963375</v>
       </c>
       <c r="O17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q17">
         <v>1819568.572</v>
@@ -1743,19 +1749,19 @@
         <v>5575134.211</v>
       </c>
       <c r="S17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1775,13 +1781,13 @@
         <v>37</v>
       </c>
       <c r="F18">
-        <v>0.0760954808141413</v>
+        <v>0.244775372577016</v>
       </c>
       <c r="G18">
-        <v>0.0338983050847458</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H18">
-        <v>0.288135593220339</v>
+        <v>0.279661016949153</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1790,22 +1796,22 @@
         <v>0.016</v>
       </c>
       <c r="K18">
-        <v>0.0004705058619192</v>
+        <v>0.0001999178981937</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>-0.0002496582365003</v>
       </c>
       <c r="M18">
-        <v>0.0007515957170832</v>
+        <v>0.0005016497685607</v>
       </c>
       <c r="N18">
-        <v>2.94066163699522</v>
+        <v>1.249486863711</v>
       </c>
       <c r="O18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q18">
         <v>1819568.572</v>
@@ -1814,19 +1820,19 @@
         <v>5575134.211</v>
       </c>
       <c r="S18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1843,10 +1849,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F19">
-        <v>0.449097968351731</v>
+        <v>0.525966045950767</v>
       </c>
       <c r="G19">
         <v>0.0423728813559322</v>
@@ -1858,25 +1864,25 @@
         <v>2</v>
       </c>
       <c r="J19">
-        <v>520</v>
+        <v>541.6</v>
       </c>
       <c r="K19">
-        <v>0.937339606501283</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>-21.9091458339264</v>
+        <v>-27.0358403733656</v>
       </c>
       <c r="M19">
-        <v>26.3559263489824</v>
+        <v>26.2922416665394</v>
       </c>
       <c r="N19">
-        <v>0.180257616634862</v>
+        <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q19">
         <v>1819568.572</v>
@@ -1885,19 +1891,19 @@
         <v>5575134.211</v>
       </c>
       <c r="S19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1917,37 +1923,37 @@
         <v>37</v>
       </c>
       <c r="F20">
-        <v>0.0001118413537634</v>
+        <v>6.44727365266085E-05</v>
       </c>
       <c r="G20">
-        <v>0.486486486486487</v>
+        <v>0.414414414414414</v>
       </c>
       <c r="H20">
-        <v>0.567567567567568</v>
+        <v>0.63963963963964</v>
       </c>
       <c r="I20">
         <v>9</v>
       </c>
       <c r="J20">
-        <v>0.0106526257283888</v>
+        <v>0.0122031504075369</v>
       </c>
       <c r="K20">
-        <v>0.0005931497311803</v>
+        <v>0.0009884542955196</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.0001515372856051</v>
       </c>
       <c r="M20">
-        <v>0.0011303462890878</v>
+        <v>0.0014383337831641</v>
       </c>
       <c r="N20">
-        <v>5.56810824207986</v>
+        <v>8.09999272736316</v>
       </c>
       <c r="O20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q20">
         <v>1819568.572</v>
@@ -1956,19 +1962,19 @@
         <v>5575134.211</v>
       </c>
       <c r="S20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1985,16 +1991,16 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F21">
-        <v>0.0206813372762932</v>
+        <v>0.756130431654122</v>
       </c>
       <c r="G21">
-        <v>0.186440677966102</v>
+        <v>0.220338983050847</v>
       </c>
       <c r="H21">
-        <v>0.161016949152542</v>
+        <v>0.152542372881356</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2003,19 +2009,19 @@
         <v>0.005</v>
       </c>
       <c r="K21">
-        <v>0.0001545643922868</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>-0.0001999178981937</v>
       </c>
       <c r="M21">
-        <v>0.0003330547112462</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>3.09128784573772</v>
+        <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P21" t="s">
         <v>41</v>
@@ -2027,19 +2033,19 @@
         <v>5575134.211</v>
       </c>
       <c r="S21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2056,13 +2062,13 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22">
-        <v>2.89063087282143E-05</v>
+        <v>0.0056441835286962</v>
       </c>
       <c r="G22">
-        <v>0.194915254237288</v>
+        <v>0.177966101694915</v>
       </c>
       <c r="H22">
         <v>0.76271186440678</v>
@@ -2071,25 +2077,25 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.2097</v>
+        <v>0.2115</v>
       </c>
       <c r="K22">
-        <v>0.0045004556970597</v>
+        <v>0.0022284117642415</v>
       </c>
       <c r="L22">
-        <v>0.0015828175127017</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.0106219778391276</v>
+        <v>0.0068394910786211</v>
       </c>
       <c r="N22">
-        <v>2.1461400558225</v>
+        <v>1.05362258356572</v>
       </c>
       <c r="O22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q22">
         <v>1819568.572</v>
@@ -2098,19 +2104,19 @@
         <v>5575134.211</v>
       </c>
       <c r="S22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2130,37 +2136,37 @@
         <v>37</v>
       </c>
       <c r="F23">
-        <v>0.642426681979569</v>
+        <v>0.937695651399138</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.692982456140351</v>
+        <v>0.710526315789474</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.795</v>
+        <v>7.815</v>
       </c>
       <c r="K23">
-        <v>0.003824607329843</v>
+        <v>0.0187692702980474</v>
       </c>
       <c r="L23">
-        <v>-0.0138695761479671</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.0216538445467686</v>
+        <v>0.0401373626373635</v>
       </c>
       <c r="N23">
-        <v>0.0490648791512895</v>
+        <v>0.240169805477254</v>
       </c>
       <c r="O23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P23" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q23">
         <v>1819568.572</v>
@@ -2169,16 +2175,16 @@
         <v>5575134.211</v>
       </c>
       <c r="S23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2198,7 +2204,7 @@
         <v>38</v>
       </c>
       <c r="F24">
-        <v>2.65639875621322E-05</v>
+        <v>0.002106611101355</v>
       </c>
       <c r="G24">
         <v>0.110169491525424</v>
@@ -2210,25 +2216,25 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.21855</v>
+        <v>0.2225</v>
       </c>
       <c r="K24">
-        <v>0.0099099916530837</v>
+        <v>0.0063061933531339</v>
       </c>
       <c r="L24">
-        <v>0.0046558615941238</v>
+        <v>0.0018555070117381</v>
       </c>
       <c r="M24">
-        <v>0.0140411415019732</v>
+        <v>0.0111343191855459</v>
       </c>
       <c r="N24">
-        <v>4.53442766098548</v>
+        <v>2.83424420365569</v>
       </c>
       <c r="O24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q24">
         <v>1819568.572</v>
@@ -2237,19 +2243,19 @@
         <v>5575134.211</v>
       </c>
       <c r="S24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2266,40 +2272,40 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F25">
-        <v>0.0425992689834088</v>
+        <v>0.5</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.635593220338983</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.82</v>
+        <v>0.8205</v>
       </c>
       <c r="K25">
-        <v>0.0100343406593407</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>-0.0100342778176365</v>
       </c>
       <c r="M25">
-        <v>0.0196731598909163</v>
+        <v>0.0075257554945055</v>
       </c>
       <c r="N25">
-        <v>1.2237000804074</v>
+        <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P25" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="Q25">
         <v>1819568.572</v>
@@ -2308,19 +2314,19 @@
         <v>5575134.211</v>
       </c>
       <c r="S25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2340,37 +2346,37 @@
         <v>37</v>
       </c>
       <c r="F26">
-        <v>0.0479736646174119</v>
+        <v>0.634402246288566</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.627118644067797</v>
+        <v>0.677966101694915</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.07149999999999999</v>
+        <v>0.074</v>
       </c>
       <c r="K26">
-        <v>0.0017099988826962</v>
+        <v>-0.000597201601246</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>-0.0018920088722582</v>
       </c>
       <c r="M26">
-        <v>0.0033447802197802</v>
+        <v>0.001497949419002</v>
       </c>
       <c r="N26">
-        <v>2.39160682894581</v>
+        <v>-0.8070291908730211</v>
       </c>
       <c r="O26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P26" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="Q26">
         <v>1819568.572</v>
@@ -2379,19 +2385,19 @@
         <v>5575134.211</v>
       </c>
       <c r="S26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2411,37 +2417,37 @@
         <v>37</v>
       </c>
       <c r="F27">
-        <v>0.06274113958373199</v>
+        <v>0.102399554669392</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.940677966101695</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>7.185</v>
+        <v>7.58</v>
       </c>
       <c r="K27">
-        <v>0.214621112749955</v>
+        <v>0.164481971702419</v>
       </c>
       <c r="L27">
-        <v>-0.0183848822096823</v>
+        <v>-0.12412209176985</v>
       </c>
       <c r="M27">
-        <v>0.470935764238371</v>
+        <v>0.414963981217076</v>
       </c>
       <c r="N27">
-        <v>2.98707185455748</v>
+        <v>2.16994685623244</v>
       </c>
       <c r="O27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P27" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q27">
         <v>1819568.572</v>
@@ -2450,19 +2456,19 @@
         <v>5575134.211</v>
       </c>
       <c r="S27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
